--- a/data/trans_orig/P35A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99FCB61B-E9BB-4C6C-AB0F-6FD378DF8F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47766196-F444-41E1-BD0D-43292C52109F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{80A4A785-FAFA-457B-A4AA-85F85132291A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C41A404E-8EFB-4B57-9AA5-1C4780D754B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="230">
   <si>
     <t>Población según si su médico le ha aconsejado que siga una alimentación saludable en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
@@ -77,646 +77,652 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>Sí, mi médico/a</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>Sí, mi médico/a</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>3,56%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>3,46%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>27,41%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
   </si>
   <si>
     <t>63,69%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1131,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD89E2A-B8BB-49CF-9429-F352EED7A79A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC941DF-B87F-465D-811F-588CD21EBCF5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1339,16 +1345,16 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>36</v>
@@ -1357,13 +1363,13 @@
         <v>26196</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>72</v>
@@ -1372,13 +1378,13 @@
         <v>35500</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>108</v>
@@ -1387,19 +1393,19 @@
         <v>61696</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>80</v>
@@ -1408,13 +1414,13 @@
         <v>74435</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -1423,13 +1429,13 @@
         <v>89667</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>242</v>
@@ -1438,13 +1444,13 @@
         <v>164102</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1465,13 @@
         <v>101982</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>243</v>
@@ -1474,13 +1480,13 @@
         <v>130733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>361</v>
@@ -1489,18 +1495,18 @@
         <v>232715</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1512,13 +1518,13 @@
         <v>47377</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>55</v>
@@ -1527,13 +1533,13 @@
         <v>39768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>99</v>
@@ -1542,13 +1548,13 @@
         <v>87145</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,13 +1569,13 @@
         <v>11672</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -1578,10 +1584,10 @@
         <v>11420</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>64</v>
@@ -1605,7 +1611,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>172</v>
@@ -1656,7 +1662,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>383</v>
@@ -1716,13 +1722,13 @@
         <v>549823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>994</v>
@@ -1731,13 +1737,13 @@
         <v>592114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1606</v>
@@ -1746,13 +1752,13 @@
         <v>1141937</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,7 +1868,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>252</v>
@@ -1913,7 +1919,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>585</v>
@@ -1973,13 +1979,13 @@
         <v>1039248</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>1516</v>
@@ -1988,13 +1994,13 @@
         <v>1059474</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>2480</v>
@@ -2003,13 +2009,13 @@
         <v>2098722</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2062,13 @@
         <v>144432</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,10 +2086,10 @@
         <v>14</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -2092,13 +2098,13 @@
         <v>21507</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -2107,19 +2113,19 @@
         <v>41724</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>173</v>
@@ -2128,13 +2134,13 @@
         <v>170308</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>283</v>
@@ -2143,13 +2149,13 @@
         <v>190555</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>456</v>
@@ -2158,19 +2164,19 @@
         <v>360864</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>417</v>
@@ -2179,13 +2185,13 @@
         <v>451797</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>667</v>
@@ -2194,13 +2200,13 @@
         <v>603702</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>1084</v>
@@ -2209,13 +2215,13 @@
         <v>1055498</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2236,13 @@
         <v>728772</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>1046</v>
@@ -2245,13 +2251,13 @@
         <v>873746</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1722</v>
@@ -2260,18 +2266,18 @@
         <v>1602518</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2283,13 +2289,13 @@
         <v>57233</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>67</v>
@@ -2298,13 +2304,13 @@
         <v>49688</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>129</v>
@@ -2313,13 +2319,13 @@
         <v>106921</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2340,13 @@
         <v>27228</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -2349,13 +2355,13 @@
         <v>34845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -2364,19 +2370,19 @@
         <v>62073</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>301</v>
@@ -2385,13 +2391,13 @@
         <v>252916</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>424</v>
@@ -2400,13 +2406,13 @@
         <v>294576</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>725</v>
@@ -2415,19 +2421,19 @@
         <v>547492</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>610</v>
@@ -2436,13 +2442,13 @@
         <v>628026</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>1022</v>
@@ -2451,13 +2457,13 @@
         <v>771323</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>1632</v>
@@ -2466,13 +2472,13 @@
         <v>1399349</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,13 +2493,13 @@
         <v>965403</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>1562</v>
@@ -2502,13 +2508,13 @@
         <v>1150432</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>2568</v>
@@ -2517,13 +2523,13 @@
         <v>2115835</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2546,13 @@
         <v>287344</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>342</v>
@@ -2555,13 +2561,13 @@
         <v>267309</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>608</v>
@@ -2570,13 +2576,13 @@
         <v>554653</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2597,13 @@
         <v>98614</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>159</v>
@@ -2606,13 +2612,13 @@
         <v>117410</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>260</v>
@@ -2621,19 +2627,19 @@
         <v>216024</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>934</v>
@@ -2642,13 +2648,13 @@
         <v>878432</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>1476</v>
@@ -2657,13 +2663,13 @@
         <v>962381</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>2410</v>
@@ -2672,19 +2678,19 @@
         <v>1840813</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>2075</v>
@@ -2693,13 +2699,13 @@
         <v>2120838</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>3384</v>
@@ -2708,28 +2714,28 @@
         <v>2459398</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>5459</v>
       </c>
       <c r="N32" s="7">
-        <v>4580237</v>
+        <v>4580236</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2750,13 @@
         <v>3385228</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>5361</v>
@@ -2759,33 +2765,33 @@
         <v>3806498</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>8737</v>
       </c>
       <c r="N33" s="7">
-        <v>7191727</v>
+        <v>7191726</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47766196-F444-41E1-BD0D-43292C52109F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{471CB13E-B467-4CD6-87BE-4490729DC2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C41A404E-8EFB-4B57-9AA5-1C4780D754B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85C5E010-7EDF-408A-A03C-742C181F2D32}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí, otra persona</t>
@@ -188,7 +188,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>8,62%</t>
@@ -296,7 +296,7 @@
     <t>67,18%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>9,22%</t>
@@ -407,7 +407,7 @@
     <t>61,0%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>11,86%</t>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC941DF-B87F-465D-811F-588CD21EBCF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC92B51-D433-4B5D-9388-E7F27A1963FC}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P35A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{471CB13E-B467-4CD6-87BE-4490729DC2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BCC6136-E71A-427A-80DE-B406835441A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85C5E010-7EDF-408A-A03C-742C181F2D32}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7FAD968B-1E3B-4182-9C2E-6448B5AEFDD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
   <si>
     <t>Población según si su médico le ha aconsejado que siga una alimentación saludable en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
@@ -77,439 +77,433 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,64%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>Sí, mi médico/a</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>Sí, mi médico/a</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>1,44%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>61,99%</t>
   </si>
   <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
   </si>
   <si>
     <t>69,09%</t>
   </si>
   <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
   </si>
   <si>
     <t>65,86%</t>
   </si>
   <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -518,10 +512,10 @@
     <t>5,93%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>4,32%</t>
@@ -530,64 +524,64 @@
     <t>3,27%</t>
   </si>
   <si>
-    <t>5,54%</t>
+    <t>5,74%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>6,18%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>2,25%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>25,61%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>25,88%</t>
   </si>
   <si>
-    <t>23,96%</t>
+    <t>24,05%</t>
   </si>
   <si>
     <t>27,75%</t>
@@ -596,133 +590,133 @@
     <t>65,05%</t>
   </si>
   <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
   </si>
   <si>
     <t>67,05%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>3,46%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>27,41%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
   </si>
   <si>
     <t>63,69%</t>
   </si>
   <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1137,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC92B51-D433-4B5D-9388-E7F27A1963FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F96686B-F890-4DBF-84D7-4C778E80070C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1345,16 +1339,16 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>36</v>
@@ -1363,13 +1357,13 @@
         <v>26196</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>72</v>
@@ -1378,13 +1372,13 @@
         <v>35500</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>108</v>
@@ -1393,19 +1387,19 @@
         <v>61696</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>80</v>
@@ -1414,13 +1408,13 @@
         <v>74435</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -1429,13 +1423,13 @@
         <v>89667</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>242</v>
@@ -1444,13 +1438,13 @@
         <v>164102</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,13 +1459,13 @@
         <v>101982</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>243</v>
@@ -1480,13 +1474,13 @@
         <v>130733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>361</v>
@@ -1495,18 +1489,18 @@
         <v>232715</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1518,13 +1512,13 @@
         <v>47377</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>55</v>
@@ -1533,13 +1527,13 @@
         <v>39768</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>99</v>
@@ -1548,13 +1542,13 @@
         <v>87145</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,13 +1563,13 @@
         <v>11672</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -1584,10 +1578,10 @@
         <v>11420</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>64</v>
@@ -1611,7 +1605,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
         <v>172</v>
@@ -1662,7 +1656,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>383</v>
@@ -1722,13 +1716,13 @@
         <v>549823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>994</v>
@@ -1737,13 +1731,13 @@
         <v>592114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1606</v>
@@ -1752,13 +1746,13 @@
         <v>1141937</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,7 +1862,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
         <v>252</v>
@@ -1919,7 +1913,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>585</v>
@@ -1979,13 +1973,13 @@
         <v>1039248</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>1516</v>
@@ -1994,13 +1988,13 @@
         <v>1059474</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>2480</v>
@@ -2009,13 +2003,13 @@
         <v>2098722</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,13 +2056,13 @@
         <v>144432</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,10 +2080,10 @@
         <v>14</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -2098,13 +2092,13 @@
         <v>21507</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -2113,19 +2107,19 @@
         <v>41724</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
         <v>173</v>
@@ -2134,13 +2128,13 @@
         <v>170308</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>283</v>
@@ -2149,13 +2143,13 @@
         <v>190555</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>456</v>
@@ -2164,19 +2158,19 @@
         <v>360864</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>417</v>
@@ -2185,13 +2179,13 @@
         <v>451797</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>667</v>
@@ -2200,13 +2194,13 @@
         <v>603702</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>1084</v>
@@ -2215,13 +2209,13 @@
         <v>1055498</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2230,13 @@
         <v>728772</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>1046</v>
@@ -2251,13 +2245,13 @@
         <v>873746</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1722</v>
@@ -2266,18 +2260,18 @@
         <v>1602518</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2289,13 +2283,13 @@
         <v>57233</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>67</v>
@@ -2304,13 +2298,13 @@
         <v>49688</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>129</v>
@@ -2319,13 +2313,13 @@
         <v>106921</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2334,13 @@
         <v>27228</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -2355,13 +2349,13 @@
         <v>34845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -2370,19 +2364,19 @@
         <v>62073</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
         <v>301</v>
@@ -2391,13 +2385,13 @@
         <v>252916</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>424</v>
@@ -2406,13 +2400,13 @@
         <v>294576</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>725</v>
@@ -2421,19 +2415,19 @@
         <v>547492</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>610</v>
@@ -2442,13 +2436,13 @@
         <v>628026</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>1022</v>
@@ -2457,13 +2451,13 @@
         <v>771323</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>1632</v>
@@ -2472,13 +2466,13 @@
         <v>1399349</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2487,13 @@
         <v>965403</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>1562</v>
@@ -2508,13 +2502,13 @@
         <v>1150432</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>2568</v>
@@ -2523,13 +2517,13 @@
         <v>2115835</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2540,13 @@
         <v>287344</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>342</v>
@@ -2561,13 +2555,13 @@
         <v>267309</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>608</v>
@@ -2576,13 +2570,13 @@
         <v>554653</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2591,13 @@
         <v>98614</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>159</v>
@@ -2612,13 +2606,13 @@
         <v>117410</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>260</v>
@@ -2627,19 +2621,19 @@
         <v>216024</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
         <v>934</v>
@@ -2648,13 +2642,13 @@
         <v>878432</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>1476</v>
@@ -2663,13 +2657,13 @@
         <v>962381</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>2410</v>
@@ -2678,19 +2672,19 @@
         <v>1840813</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
         <v>2075</v>
@@ -2699,13 +2693,13 @@
         <v>2120838</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>3384</v>
@@ -2714,28 +2708,28 @@
         <v>2459398</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>5459</v>
       </c>
       <c r="N32" s="7">
-        <v>4580236</v>
+        <v>4580237</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2744,13 @@
         <v>3385228</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>5361</v>
@@ -2765,33 +2759,33 @@
         <v>3806498</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>8737</v>
       </c>
       <c r="N33" s="7">
-        <v>7191726</v>
+        <v>7191727</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
